--- a/plots/countries/plot data/United Kingdom.xlsx
+++ b/plots/countries/plot data/United Kingdom.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>50.4399109014834</v>
+        <v>50.6471823529948</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>120.24524277977</v>
+        <v>121.60196257293</v>
       </c>
     </row>
     <row r="4">
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>74.0944234401167</v>
+        <v>72.9766893174043</v>
       </c>
     </row>
     <row r="6">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>239.601991577737</v>
+        <v>239.586211928607</v>
       </c>
     </row>
     <row r="7">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>123.585753568252</v>
+        <v>123.578787526784</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>80.0216580698962</v>
+        <v>80.1499699638577</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>10.7828426642268</v>
+        <v>10.6647724371143</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>72.5267070170583</v>
+        <v>70.5155203369308</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>50.085276448666</v>
+        <v>50.289658527844</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>130.885528771497</v>
+        <v>132.441556815142</v>
       </c>
     </row>
     <row r="13">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>77.6585789056566</v>
+        <v>76.3701777049506</v>
       </c>
     </row>
     <row r="15">
@@ -765,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>236.887988093565</v>
+        <v>236.888410759529</v>
       </c>
     </row>
     <row r="16">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>122.644699455991</v>
+        <v>122.637382265227</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>78.0418207246071</v>
+        <v>78.1890712082639</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>10.2719771076211</v>
+        <v>10.1512205032887</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>73.2180150606174</v>
+        <v>71.382377903072</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>49.5584167341681</v>
+        <v>49.7572115741774</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>127.418894395547</v>
+        <v>128.976616792177</v>
       </c>
     </row>
     <row r="22">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>75.4392661766471</v>
+        <v>74.1471654065632</v>
       </c>
     </row>
     <row r="24">
@@ -945,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>226.03474763266</v>
+        <v>226.023551455077</v>
       </c>
     </row>
     <row r="25">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>124.044283229486</v>
+        <v>124.036437443022</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>73.3345990788223</v>
+        <v>73.4682530776662</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>9.42663321731008</v>
+        <v>9.31291494122191</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>73.4021861779919</v>
+        <v>71.5395491933577</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>48.8998475638094</v>
+        <v>49.0964401647828</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>130.934091455325</v>
+        <v>132.542995598702</v>
       </c>
     </row>
     <row r="31">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>72.9671817565043</v>
+        <v>71.608006804162</v>
       </c>
     </row>
     <row r="33">
@@ -1125,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>210.189382189227</v>
+        <v>210.144747420451</v>
       </c>
     </row>
     <row r="34">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>125.3176918352</v>
+        <v>125.309828011942</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>69.9393738215254</v>
+        <v>70.0420158182131</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>8.83867484563713</v>
+        <v>8.7304472426455</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>73.9960763554551</v>
+        <v>72.2132663258773</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>49.6477473687859</v>
+        <v>49.8477730655277</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>125.586572681689</v>
+        <v>127.293269607804</v>
       </c>
     </row>
     <row r="40">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>72.0027126200148</v>
+        <v>70.6063518644441</v>
       </c>
     </row>
     <row r="42">
@@ -1305,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="n">
-        <v>205.862715632876</v>
+        <v>205.819773828045</v>
       </c>
     </row>
     <row r="43">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>126.75202722056</v>
+        <v>126.744321336337</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>73.0705996255675</v>
+        <v>73.1770386600049</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>8.43339950804233</v>
+        <v>8.28644133198345</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>74.4255429453199</v>
+        <v>72.6895124788558</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>49.4600306961897</v>
+        <v>49.6690332243214</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>121.122948052153</v>
+        <v>123.051087639127</v>
       </c>
     </row>
     <row r="49">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>69.2245863064595</v>
+        <v>67.6366054516204</v>
       </c>
     </row>
     <row r="51">
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>203.847610087357</v>
+        <v>203.734635640309</v>
       </c>
     </row>
     <row r="52">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>126.230589560213</v>
+        <v>126.222145987014</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>73.4305844359083</v>
+        <v>73.5454031485059</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>8.45190200976173</v>
+        <v>8.3244875884708</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>75.6051741793836</v>
+        <v>73.4050709690949</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>50.4324153939339</v>
+        <v>50.6400073372167</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>134.235149668339</v>
+        <v>136.443102593125</v>
       </c>
     </row>
     <row r="58">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>36.4584034143631</v>
+        <v>36.4584036277237</v>
       </c>
     </row>
     <row r="59">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>68.9449118643927</v>
+        <v>67.0861376432526</v>
       </c>
     </row>
     <row r="60">
@@ -1665,7 +1665,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="n">
-        <v>204.831442915208</v>
+        <v>204.76416521162</v>
       </c>
     </row>
     <row r="61">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>130.738569434906</v>
+        <v>130.7295343849</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>75.865919465613</v>
+        <v>75.937307949734</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>7.4332349468701</v>
+        <v>7.32837523518685</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>75.9075593880657</v>
+        <v>74.0478039998027</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>50.3177592748556</v>
+        <v>50.5200749687912</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>124.200940996041</v>
+        <v>126.50565360216</v>
       </c>
     </row>
     <row r="67">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>32.7986300265473</v>
+        <v>32.7986302909828</v>
       </c>
     </row>
     <row r="68">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>68.6432252795281</v>
+        <v>66.7057413237619</v>
       </c>
     </row>
     <row r="69">
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>193.942074287474</v>
+        <v>193.90562535648</v>
       </c>
     </row>
     <row r="70">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>131.418640387298</v>
+        <v>131.409836515782</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>76.4727187071588</v>
+        <v>76.5249687676874</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>6.8760014332416</v>
+        <v>6.77903352890986</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>75.4048586467399</v>
+        <v>73.6349009120138</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>50.1205615025161</v>
+        <v>50.3321168103143</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>126.944861633059</v>
+        <v>127.112286122504</v>
       </c>
     </row>
     <row r="76">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>30.6558808151016</v>
+        <v>30.6558813715721</v>
       </c>
     </row>
     <row r="77">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>67.9790664144532</v>
+        <v>68.1547128894177</v>
       </c>
     </row>
     <row r="78">
@@ -2025,7 +2025,7 @@
         <v>17</v>
       </c>
       <c r="F78" t="n">
-        <v>199.673579986579</v>
+        <v>199.445293659814</v>
       </c>
     </row>
     <row r="79">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>130.915979082484</v>
+        <v>130.907381067877</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>71.1676046523927</v>
+        <v>71.2258293036659</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>6.07546031591055</v>
+        <v>5.99149476243992</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>74.2204207444673</v>
+        <v>73.2279014980814</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>49.8996311119739</v>
+        <v>50.1161068885997</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>128.471363221488</v>
+        <v>128.561721842425</v>
       </c>
     </row>
     <row r="85">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>26.2951401714547</v>
+        <v>26.2951403075062</v>
       </c>
     </row>
     <row r="86">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>67.6007544344656</v>
+        <v>67.8519410947027</v>
       </c>
     </row>
     <row r="87">
@@ -2205,7 +2205,7 @@
         <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>190.244725988773</v>
+        <v>190.096985361101</v>
       </c>
     </row>
     <row r="88">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>132.516970260772</v>
+        <v>132.50870278307</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>56.5445434560086</v>
+        <v>56.5947707734064</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>6.19798491312578</v>
+        <v>6.10670825317125</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>70.9991114498884</v>
+        <v>70.7037968780228</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>48.1365798549917</v>
+        <v>48.3534704704006</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>127.394365006068</v>
+        <v>127.482054723456</v>
       </c>
     </row>
     <row r="94">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>24.7054569369534</v>
+        <v>24.7054566297223</v>
       </c>
     </row>
     <row r="95">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>69.5214567900432</v>
+        <v>69.8011062868395</v>
       </c>
     </row>
     <row r="96">
@@ -2385,7 +2385,7 @@
         <v>17</v>
       </c>
       <c r="F96" t="n">
-        <v>201.119218296666</v>
+        <v>200.967051530826</v>
       </c>
     </row>
     <row r="97">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>130.809472000589</v>
+        <v>130.801345030974</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>52.8299483085512</v>
+        <v>52.8543110037908</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>5.94517502068159</v>
+        <v>5.84661017958988</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>68.1276809239963</v>
+        <v>67.9126290532173</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>45.7974928306703</v>
+        <v>46.0405854887592</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>130.397765428669</v>
+        <v>130.445493161022</v>
       </c>
     </row>
     <row r="103">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>23.3403599040354</v>
+        <v>23.3403600087972</v>
       </c>
     </row>
     <row r="104">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>67.7518055757958</v>
+        <v>68.0806584303736</v>
       </c>
     </row>
     <row r="105">
@@ -2565,7 +2565,7 @@
         <v>17</v>
       </c>
       <c r="F105" t="n">
-        <v>212.106730226662</v>
+        <v>211.996445193622</v>
       </c>
     </row>
     <row r="106">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>130.758878817252</v>
+        <v>130.750654046121</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>49.4593666269079</v>
+        <v>49.5321996514555</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>5.30444220021562</v>
+        <v>5.2049237666997</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>66.1992645425433</v>
+        <v>65.5916026943288</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>45.2616638495685</v>
+        <v>45.4977681993629</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>122.526736466977</v>
+        <v>122.576905945443</v>
       </c>
     </row>
     <row r="112">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>22.2972473962157</v>
+        <v>22.2972479493827</v>
       </c>
     </row>
     <row r="113">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>61.2293599758755</v>
+        <v>61.5802348929501</v>
       </c>
     </row>
     <row r="114">
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="F114" t="n">
-        <v>209.044683387725</v>
+        <v>208.929050645451</v>
       </c>
     </row>
     <row r="115">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>133.576252537581</v>
+        <v>133.569509187759</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>45.8136378288759</v>
+        <v>45.8796056922427</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>4.4782189059636</v>
+        <v>4.37488858346897</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>64.9572295227898</v>
+        <v>65.1321198893289</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>45.663689383034</v>
+        <v>45.8842252060941</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>123.164002402297</v>
+        <v>123.319409060184</v>
       </c>
     </row>
     <row r="121">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>20.0383843137749</v>
+        <v>20.0383847166484</v>
       </c>
     </row>
     <row r="122">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>61.6369968266513</v>
+        <v>61.9172299109759</v>
       </c>
     </row>
     <row r="123">
@@ -2925,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="F123" t="n">
-        <v>216.785118928976</v>
+        <v>216.647766568114</v>
       </c>
     </row>
     <row r="124">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>132.86073277311</v>
+        <v>132.855251949305</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>49.1984910876453</v>
+        <v>49.2674279902332</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>4.3329028138682</v>
+        <v>4.21586132110495</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>60.9196716828073</v>
+        <v>61.6839958623105</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>46.0374972841616</v>
+        <v>46.271368789993</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>125.979285808253</v>
+        <v>125.959077943147</v>
       </c>
     </row>
     <row r="130">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>19.7520780312745</v>
+        <v>19.8254883043176</v>
       </c>
     </row>
     <row r="131">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>59.4589879824343</v>
+        <v>59.9758322172949</v>
       </c>
     </row>
     <row r="132">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F132" t="n">
-        <v>214.975004367313</v>
+        <v>214.842188521739</v>
       </c>
     </row>
     <row r="133">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>134.168256367622</v>
+        <v>134.164161310197</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>50.4293263477705</v>
+        <v>50.4878554247805</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>3.48112890860394</v>
+        <v>3.36438759920793</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>56.0473702182715</v>
+        <v>57.0042367856025</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>46.0413607029777</v>
+        <v>46.2519897721436</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>121.442685599008</v>
+        <v>121.525512591</v>
       </c>
     </row>
     <row r="139">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>18.2310400722394</v>
+        <v>18.2310403662139</v>
       </c>
     </row>
     <row r="140">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>60.3865703593259</v>
+        <v>60.7803571259538</v>
       </c>
     </row>
     <row r="141">
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="n">
-        <v>215.320546004189</v>
+        <v>215.146619009193</v>
       </c>
     </row>
     <row r="142">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>134.66588174122</v>
+        <v>134.663166881122</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>49.2438746179806</v>
+        <v>49.3176862154433</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>3.11159371630457</v>
+        <v>2.99479575925358</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>53.1493391479403</v>
+        <v>54.7511244721121</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>45.0368655875005</v>
+        <v>45.2376347666298</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>117.136301669753</v>
+        <v>117.094983829325</v>
       </c>
     </row>
     <row r="148">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>16.6074621785389</v>
+        <v>16.6074631254457</v>
       </c>
     </row>
     <row r="149">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>57.3750848029397</v>
+        <v>57.9346588997172</v>
       </c>
     </row>
     <row r="150">
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="F150" t="n">
-        <v>221.256120364939</v>
+        <v>221.181106243103</v>
       </c>
     </row>
     <row r="151">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>134.091580667984</v>
+        <v>134.103508227349</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>49.7445930067826</v>
+        <v>49.8230298164236</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>2.69876606782295</v>
+        <v>2.58417566317645</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>49.8528733949472</v>
+        <v>52.7793144662384</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>44.616237024866</v>
+        <v>44.8134144746045</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>112.422387012287</v>
+        <v>112.422826491945</v>
       </c>
     </row>
     <row r="157">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>16.2729587143008</v>
+        <v>16.2729595923652</v>
       </c>
     </row>
     <row r="158">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>56.3394415272032</v>
+        <v>56.8189992545428</v>
       </c>
     </row>
     <row r="159">
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="F159" t="n">
-        <v>216.15430161299</v>
+        <v>216.080710208086</v>
       </c>
     </row>
     <row r="160">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>134.920645067196</v>
+        <v>134.895425683609</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>51.7495543106477</v>
+        <v>51.809667612838</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>2.35202213947975</v>
+        <v>2.15601354642002</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>46.4612831932941</v>
+        <v>49.1876372284189</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>43.5682052158986</v>
+        <v>43.7608563015123</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>117.029788575614</v>
+        <v>117.149569776561</v>
       </c>
     </row>
     <row r="166">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>15.1339043684347</v>
+        <v>15.1338882657664</v>
       </c>
     </row>
     <row r="167">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>50.9238600580787</v>
+        <v>51.3711067959059</v>
       </c>
     </row>
     <row r="168">
@@ -3825,7 +3825,7 @@
         <v>17</v>
       </c>
       <c r="F168" t="n">
-        <v>210.522284484616</v>
+        <v>210.44606789381</v>
       </c>
     </row>
     <row r="169">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>130.073330119011</v>
+        <v>130.038538401103</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>49.0929813618796</v>
+        <v>49.1459024030646</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>1.51641862156486</v>
+        <v>1.40836725323564</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>41.4107427829967</v>
+        <v>44.3212436976013</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>43.2249203547067</v>
+        <v>43.412350713487</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>109.190375509216</v>
+        <v>109.458697400234</v>
       </c>
     </row>
     <row r="175">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>15.0954343435612</v>
+        <v>15.0953691637688</v>
       </c>
     </row>
     <row r="176">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>44.2192398489913</v>
+        <v>44.2008802215079</v>
       </c>
     </row>
     <row r="177">
@@ -4005,7 +4005,7 @@
         <v>17</v>
       </c>
       <c r="F177" t="n">
-        <v>187.309026292235</v>
+        <v>187.195606376283</v>
       </c>
     </row>
     <row r="178">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>125.336193901336</v>
+        <v>125.62717904327</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>39.3447045043339</v>
+        <v>39.3931883526968</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>1.42044673871932</v>
+        <v>1.30424090080131</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>37.0748968135358</v>
+        <v>40.2495301195956</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>43.5530530929623</v>
+        <v>43.742935429872</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>119.988285725683</v>
+        <v>120.200826784522</v>
       </c>
     </row>
     <row r="184">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>14.6820608987466</v>
+        <v>14.6820216477321</v>
       </c>
     </row>
     <row r="185">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>46.0126570901132</v>
+        <v>46.6551817028404</v>
       </c>
     </row>
     <row r="186">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="F186" t="n">
-        <v>194.668155645</v>
+        <v>194.535296499749</v>
       </c>
     </row>
     <row r="187">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>123.52388527062</v>
+        <v>124.006609892957</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>40.3068579194476</v>
+        <v>40.3574149711566</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>1.35176790363235</v>
+        <v>1.21186671657399</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>31.9029224824783</v>
+        <v>35.0019159481571</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>43.4030669552259</v>
+        <v>43.5945746026794</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>98.6384944906093</v>
+        <v>99.0026270332738</v>
       </c>
     </row>
     <row r="193">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>14.09066649598</v>
+        <v>14.0905795020605</v>
       </c>
     </row>
     <row r="194">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>43.1903714425424</v>
+        <v>45.0387566079095</v>
       </c>
     </row>
     <row r="195">
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="F195" t="n">
-        <v>180.371061539658</v>
+        <v>180.219334261577</v>
       </c>
     </row>
     <row r="196">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>121.386771466607</v>
+        <v>121.454699391596</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>38.34804811837</v>
+        <v>38.4172861327613</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>0.746821975739228</v>
+        <v>0.563572599967668</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>29.6142148794689</v>
+        <v>32.697233855713</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>43.1157705153607</v>
+        <v>43.2982225839716</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>108.108958704166</v>
+        <v>108.791435074164</v>
       </c>
     </row>
     <row r="202">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>13.2807682349538</v>
+        <v>13.2804481513556</v>
       </c>
     </row>
     <row r="203">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>41.0081659346502</v>
+        <v>42.5710305209084</v>
       </c>
     </row>
     <row r="204">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>191.519065583691</v>
+        <v>191.333436467559</v>
       </c>
     </row>
     <row r="205">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>120.339874565378</v>
+        <v>120.850141819415</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>39.9254269669872</v>
+        <v>39.7634476224297</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>0.908172725029869</v>
+        <v>0.666432760578476</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>27.9431484499454</v>
+        <v>30.9611868005523</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>42.8222156845408</v>
+        <v>43.0218006651886</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>108.551667730183</v>
+        <v>109.787606424947</v>
       </c>
     </row>
     <row r="211">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>12.4911476891572</v>
+        <v>12.490957488935</v>
       </c>
     </row>
     <row r="212">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>39.4604295161912</v>
+        <v>42.5498309991889</v>
       </c>
     </row>
     <row r="213">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>179.297593686163</v>
+        <v>179.163902990609</v>
       </c>
     </row>
     <row r="214">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>119.112138116555</v>
+        <v>119.305552646487</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>44.2369849408548</v>
+        <v>44.1459392630163</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>0.805061192940708</v>
+        <v>0.559309430609775</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>24.7035137684875</v>
+        <v>27.5715306387512</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>44.1562562908064</v>
+        <v>44.3645106447715</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>92.8002038444913</v>
+        <v>93.6874111333726</v>
       </c>
     </row>
     <row r="220">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>12.2322349544949</v>
+        <v>12.2321527137601</v>
       </c>
     </row>
     <row r="221">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>38.9806225531462</v>
+        <v>40.5019480114478</v>
       </c>
     </row>
     <row r="222">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>154.586420211429</v>
+        <v>154.407306150426</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>120.794285892272</v>
+        <v>121.277578340504</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>43.5786105008287</v>
+        <v>43.5507200745986</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>0.391885522537285</v>
+        <v>0.118571207250546</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>22.3304332808103</v>
+        <v>25.119639909222</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>44.1280680075016</v>
+        <v>44.3487825255756</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>96.6784962594275</v>
+        <v>96.9677463375804</v>
       </c>
     </row>
     <row r="229">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>11.90645954866</v>
+        <v>11.9599549112123</v>
       </c>
     </row>
     <row r="230">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>37.6382970527654</v>
+        <v>38.9461205912187</v>
       </c>
     </row>
     <row r="231">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>134.980911182433</v>
+        <v>134.749982157995</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>123.444176095619</v>
+        <v>122.162767122516</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>41.4066111622453</v>
+        <v>41.3444930481942</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>0.577837980703011</v>
+        <v>-0.0214485216322217</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>21.6292607293098</v>
+        <v>24.2956986485158</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>43.6944723773412</v>
+        <v>43.9180063958121</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>97.9772746141452</v>
+        <v>97.6186376558308</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>10.7007879938635</v>
+        <v>10.7183077075122</v>
       </c>
     </row>
     <row r="239">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>36.5452441708823</v>
+        <v>38.0862325601486</v>
       </c>
     </row>
     <row r="240">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>112.696098452843</v>
+        <v>112.448513128619</v>
       </c>
     </row>
     <row r="241">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>126.065263878523</v>
+        <v>125.75730977684</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>35.9566540436266</v>
+        <v>35.9725638029184</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>0.631249902889899</v>
+        <v>0.32834805688222</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>20.8314943681364</v>
+        <v>23.1239666579744</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>43.927729299889</v>
+        <v>44.1569143948416</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>96.0724154503016</v>
+        <v>95.2801045211941</v>
       </c>
     </row>
     <row r="247">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>10.344178373869</v>
+        <v>10.3553644686229</v>
       </c>
     </row>
     <row r="248">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>37.1627243306981</v>
+        <v>38.4312808735304</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>102.517553744643</v>
+        <v>102.127788084504</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>126.184426388857</v>
+        <v>126.473648481607</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>35.6369514394968</v>
+        <v>35.4986315568145</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>0.370493366241632</v>
+        <v>0.0456761735091549</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>21.3526443804046</v>
+        <v>23.4700395210742</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>43.2339316515711</v>
+        <v>43.4606661781232</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>99.0027639861185</v>
+        <v>98.7458595045862</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>10.4724140054304</v>
+        <v>10.5026193985811</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>38.4765799506753</v>
+        <v>38.4522959608293</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>95.3126756265019</v>
+        <v>94.8963933433109</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>124.422978772577</v>
+        <v>125.035701317516</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>33.581546551562</v>
+        <v>33.6891888421792</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>0.9316820480144</v>
+        <v>0.706263496436295</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>21.4171319733981</v>
+        <v>23.3176411090999</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>43.4945924746449</v>
+        <v>43.7347598816888</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>95.8679842520293</v>
+        <v>95.6093794968507</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>10.0882715682301</v>
+        <v>10.3997565620938</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>37.3293204061822</v>
+        <v>37.117947523463</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>87.5314689837171</v>
+        <v>87.092163009964</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>122.676714401363</v>
+        <v>121.800477608592</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>33.1266750031285</v>
+        <v>32.9618852006074</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>1.33595967172878</v>
+        <v>0.570520431906709</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>21.0129173552838</v>
+        <v>22.8374112899595</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>42.2138814638835</v>
+        <v>42.4629388090858</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>94.0155004775534</v>
+        <v>95.3681006538488</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>8.7165025680017</v>
+        <v>9.05321826324472</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>35.4600201250063</v>
+        <v>34.6709963726457</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>77.3463729063317</v>
+        <v>76.4730021520466</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>98.3170664926963</v>
+        <v>100.545803913079</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>31.4208498325493</v>
+        <v>31.5223129707862</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>0.779216468595324</v>
+        <v>0.418826689373381</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>19.5942400740888</v>
+        <v>21.3311126094167</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>42.7874625503592</v>
+        <v>43.043815066131</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>99.1091786120068</v>
+        <v>100.924867665338</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>7.83453845141328</v>
+        <v>8.09469389240298</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>36.9910676861358</v>
+        <v>35.2508597508233</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>80.4448342124246</v>
+        <v>79.8683777282564</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>108.479696938018</v>
+        <v>109.007975671468</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>29.882763401506</v>
+        <v>29.7807719805805</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>0.543825501805476</v>
+        <v>0.249977614646045</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>19.0161517727309</v>
+        <v>20.2763292984127</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>41.9919562316398</v>
+        <v>42.1935410363551</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>86.4782361521719</v>
+        <v>85.8996522914452</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>7.0261369711628</v>
+        <v>7.37837403286785</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>35.8605033282584</v>
+        <v>32.980219133233</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>81.2965248520288</v>
+        <v>81.0579465811228</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>110.569725104542</v>
+        <v>110.474528450593</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>27.3613324322219</v>
+        <v>28.1931769447539</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>0.79380932596544</v>
+        <v>0.571739291922666</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>18.9671684757063</v>
+        <v>20.1837958723407</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>41.4191999963011</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>81.6441796587792</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>7.26308469930605</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>33.3380128097023</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>68.726279511145</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>109.268499314331</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>26.2195650319709</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1.13802494770974</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>20.074203423819</v>
       </c>
     </row>
   </sheetData>
